--- a/azucena/BT/azu_lib_plus8.xlsx
+++ b/azucena/BT/azu_lib_plus8.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dfa238\pyproj\gambit_tekken8\azucena\BT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C6227410-7C56-41E3-92C2-E7BCC7641543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868DB373-1307-42CB-8092-2628F5C313F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3646A7B2-A3A2-437C-B2D0-C976E94CCFF6}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{3646A7B2-A3A2-437C-B2D0-C976E94CCFF6}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>B</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>key</t>
+  </si>
+  <si>
+    <t>Low parry</t>
   </si>
 </sst>
 </file>
@@ -585,7 +588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BED1CA7-A131-441E-9B17-739DD5A186CB}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -640,10 +643,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3B9BB04-D3D2-4E07-A007-5B16E4AB0AD8}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,7 +654,7 @@
     <col min="8" max="8" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -679,8 +682,11 @@
       <c r="I1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -708,8 +714,11 @@
       <c r="I2">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="1">
+        <v>-76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -737,8 +746,11 @@
       <c r="I3">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="1">
+        <v>-76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -766,8 +778,11 @@
       <c r="I4">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -795,8 +810,11 @@
       <c r="I5">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J5">
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -824,8 +842,11 @@
       <c r="I6">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J6" s="1">
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -853,8 +874,11 @@
       <c r="I7" s="4">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="J7" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -882,8 +906,11 @@
       <c r="I8">
         <v>66</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -911,8 +938,11 @@
       <c r="I9">
         <v>59</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -940,8 +970,11 @@
       <c r="I10">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -969,8 +1002,11 @@
       <c r="I11">
         <v>48</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <v>-76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -998,8 +1034,11 @@
       <c r="I12">
         <v>46</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -1027,8 +1066,11 @@
       <c r="I13">
         <v>34.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -1056,8 +1098,11 @@
       <c r="I14">
         <v>-64</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14">
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -1084,6 +1129,9 @@
       </c>
       <c r="I15">
         <v>40</v>
+      </c>
+      <c r="J15">
+        <v>-76</v>
       </c>
     </row>
   </sheetData>
